--- a/candidate_output_all.xlsx
+++ b/candidate_output_all.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,13 +426,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>109.1786159991517</v>
+        <v>109.1786205742166</v>
       </c>
       <c r="C1" t="n">
-        <v>10.3709791142102</v>
+        <v>10.37097476852108</v>
       </c>
       <c r="D1" t="n">
-        <v>1.233905917112496</v>
+        <v>1.233906563344711</v>
       </c>
     </row>
     <row r="2">
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>112.5111492593596</v>
+        <v>112.511197023974</v>
       </c>
       <c r="C2" t="n">
-        <v>10.22667736102537</v>
+        <v>10.23179269695487</v>
       </c>
       <c r="D2" t="n">
-        <v>1.088972152293099</v>
+        <v>1.088284220444473</v>
       </c>
     </row>
     <row r="3">
@@ -454,13 +454,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>102.7751520335874</v>
+        <v>102.7756044855822</v>
       </c>
       <c r="C3" t="n">
-        <v>10.58245219353956</v>
+        <v>10.58245397251616</v>
       </c>
       <c r="D3" t="n">
-        <v>1.054715452212185</v>
+        <v>1.054717717983383</v>
       </c>
     </row>
     <row r="4">
@@ -468,13 +468,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>106.7642155007096</v>
+        <v>103.166746438103</v>
       </c>
       <c r="C4" t="n">
-        <v>9.487363305302161</v>
+        <v>10.8996482801407</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32323244061115</v>
+        <v>0.7926528662174265</v>
       </c>
     </row>
     <row r="5">
@@ -482,13 +482,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>98.72426217078821</v>
+        <v>104.6677834151466</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6778879089335</v>
+        <v>9.923241123419512</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06814525483544</v>
+        <v>1.213748783451909</v>
       </c>
     </row>
     <row r="6">
@@ -496,13 +496,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>104.4464925220635</v>
+        <v>106.7794747921097</v>
       </c>
       <c r="C6" t="n">
-        <v>10.3272192561947</v>
+        <v>9.487946435860174</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9438249195704006</v>
+        <v>1.323166101186889</v>
       </c>
     </row>
     <row r="7">
@@ -510,13 +510,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>105.5027629744901</v>
+        <v>98.54296266253425</v>
       </c>
       <c r="C7" t="n">
-        <v>9.693709293912391</v>
+        <v>10.69053567380967</v>
       </c>
       <c r="D7" t="n">
-        <v>1.223467529020919</v>
+        <v>1.064762899394597</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +524,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>97.66904763304348</v>
+        <v>104.3718034604765</v>
       </c>
       <c r="C8" t="n">
-        <v>10.29763773295634</v>
+        <v>10.33323711615574</v>
       </c>
       <c r="D8" t="n">
-        <v>1.124563813914136</v>
+        <v>0.9435102513415738</v>
       </c>
     </row>
     <row r="9">
@@ -538,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>99.5333908741014</v>
+        <v>105.502578037155</v>
       </c>
       <c r="C9" t="n">
-        <v>10.53440643914948</v>
+        <v>9.693702029651408</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8283620475904198</v>
+        <v>1.223471251108252</v>
       </c>
     </row>
     <row r="10">
@@ -552,13 +552,321 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>92.43603585026028</v>
+        <v>101.1011844393747</v>
       </c>
       <c r="C10" t="n">
-        <v>8.879313992600396</v>
+        <v>10.37965696862676</v>
       </c>
       <c r="D10" t="n">
-        <v>1.132031947576623</v>
+        <v>1.066588561399274</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>97.03337002844215</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.76193278594143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.006258967614246</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>97.64265315771384</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.29382548146205</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.124525108184251</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99.46655366285279</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10.52890109413067</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8283571727685592</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>106.4945079987856</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.330237392450396</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.124623496196694</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>93.15156922950189</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.58962240117504</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.858600470404917</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>92.78555524585381</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.13239105666403</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.09887750072958</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>116.9548527908364</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.749768031377881</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5059689150226316</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>88.81350597853542</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10.06948390580832</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.109296649182347</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>88.86949133669478</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.774395448161119</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.227896890778952</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90.42192385422325</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10.15493461409919</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9148563577195951</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>89.38019988050237</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10.45565062792593</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.755169316139251</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>98.42976962175062</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.51550648349269</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.24404509069062</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>84.82381565628384</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.797461041534991</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.230507208966279</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>102.6259428699427</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.289074331226985</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4979650740737364</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>84.6488430913671</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10.11986427361115</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9047655866026827</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>92.38981654337677</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.878086946979682</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.13158097321209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>82.1327797047794</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.948318190070859</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.048045808153214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>81.35088578706497</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.21020303845059</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9203340417559835</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>82.89554911232271</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.712510102896687</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6370699908969363</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>89.54688633585391</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.514859368099582</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7736691004446931</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>84.08595203661967</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.134077062256477</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.020412268517304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90.87304998666903</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.902647772436168</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7552897245731691</v>
       </c>
     </row>
   </sheetData>
